--- a/results/mp/logistic/corona/confidence/84/desired-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,13 +43,16 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
@@ -58,7 +61,10 @@
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>no</t>
@@ -70,13 +76,16 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>hand</t>
   </si>
   <si>
     <t>best</t>
@@ -85,25 +94,25 @@
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>thank</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
@@ -112,27 +121,24 @@
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -145,22 +151,22 @@
     <t>well</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -526,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -637,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8527397260273972</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C4">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9722222222222222</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -687,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8378378378378378</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <v>0.9666666666666667</v>
@@ -737,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5502645502645502</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.9164490861618799</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>351</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>351</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4282945736434108</v>
+        <v>0.6243386243386243</v>
       </c>
       <c r="C8">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="D8">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -855,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>295</v>
+        <v>71</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9302325581395349</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3733333333333334</v>
+        <v>0.5406976744186046</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.9138381201044387</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -937,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1055555555555556</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>322</v>
+        <v>29</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.9084507042253521</v>
+        <v>0.90625</v>
       </c>
       <c r="L10">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="M10">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,21 +985,45 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.2147651006711409</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>117</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8984375</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L11">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M11">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1005,21 +1035,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1166666666666667</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>318</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.8962264150943396</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L12">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1031,21 +1085,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.8936170212765957</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1057,21 +1111,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.8928571428571429</v>
+        <v>0.88125</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1083,21 +1137,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.88125</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L15">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="M15">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1109,21 +1163,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.8658536585365854</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1135,21 +1189,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.8620689655172413</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1161,21 +1215,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.8611111111111112</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1187,21 +1241,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.8125</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1213,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.8095238095238095</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L20">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1239,21 +1293,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.78</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1265,21 +1319,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.775</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1291,21 +1345,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.7714285714285715</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1317,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.7692307692307693</v>
+        <v>0.74</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1343,21 +1397,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.7441176470588236</v>
+        <v>0.7382352941176471</v>
       </c>
       <c r="L25">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M25">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1369,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.7423728813559322</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="L26">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M26">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1395,21 +1449,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.7196652719665272</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L27">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M27">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1421,21 +1475,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6808510638297872</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1447,21 +1501,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.676923076923077</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L29">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1473,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.651685393258427</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L30">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="M30">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1499,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.6428571428571429</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1525,21 +1579,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5098039215686274</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1551,21 +1605,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4931506849315068</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1577,21 +1631,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4871794871794872</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1603,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
